--- a/FoundData/EthiopiaDataInvestigation.xlsx
+++ b/FoundData/EthiopiaDataInvestigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD6AC6-5124-A640-BF31-06B01D60CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC54ADE-99D6-0245-BC6F-A6F4E1AC8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{F0FDC933-9F9D-B74D-9AEE-450C1E53535B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>Country</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Since there is little no imports (src 1) and the total cattle being added to the population averaged ~4 million per year since 2014/2015, the FAOSTAT population numbers follow the +4 million cattle trend very well giving proof that the population numbers are correct.</t>
   </si>
   <si>
-    <t xml:space="preserve">Almost all papers cite CSA when they are writing about Ethiopian livestock. So it is really hard to find competing information about their livestock population numbers. </t>
-  </si>
-  <si>
     <t>Goats</t>
   </si>
   <si>
@@ -117,6 +114,90 @@
   </si>
   <si>
     <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwjTxoGukseCAxXMFVkFHfibAkgQFnoECAgQAw&amp;url=https%3A%2F%2Fedepot.wur.nl%2F343608%23%3A~%3Atext%3DThe%2520rural%2520poultry%2520production%2520system%2CAlemu%2520%2526%2520Tadelle%252C%25201997).&amp;usg=AOvVaw2aJvM7P7vrnLyV2aARzubp&amp;opi=89978449, https://austinpublishinggroup.com/agriculture-crop-sciences/fulltext/aacs-v8-id1124.php</t>
+  </si>
+  <si>
+    <t>2002-2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ethiopian famine of 2003 was the worst famine the region had seen in 20 years. 13.2 million people were affected. As a result this should have impacted livestock populations and we can see this in a reduction of the cattle population size in 2003. This is good evidence that FAOSTAT has good data because it's showing a decrease when we would expect to see one given the drought occuring at the time. </t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/23801556_Child_survival_during_the_2002-2003_drought_in_Ethiopia, https://www.theguardian.com/world/2003/apr/18/famine.ethiopia</t>
+  </si>
+  <si>
+    <t>The Ethiopian famine of 2003 was the worst famine the region had seen in 20 years. 13.2 million people were affected. As a result this should have impacted livestock populations and we should see a reduction in sheep during 2003 but this is not the case. The population actually gains by more than a million sheep. The evidence would suggest that the sheep population would need to decrease given the lack of water and lack of food in Ethiopia but FAOSTAT does not show this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Central Statistics Agency states there was 65 million cattle in Ethiopia in 2020 whereas FAOSTAT states there was more than 70 million cattle in Ethiopia in this year. </t>
+  </si>
+  <si>
+    <t>https://livestocklab.ifas.ufl.edu/media/livestocklabifasufledu/pdf-/LSIL_Livestock_Systems_Overview_Ethiopia_2021_08.pdf</t>
+  </si>
+  <si>
+    <t>A report from the UN office for the Coordination of Humanitarian Affairs, states than four regions of Ethiopia, Afar, Oromia, SNNP, and Somali, all experienced flooding displacing 200k people and destroying homes, farmland and killing livestock. We know from the attached paper that SNPP and Oromia contain almost half the countries cattle. So we would expect given these floods and destruction we would see it affecting livestock population numbers. However 2019 saw  the population grow by 4 million cattle or almost 6.5%. This seems high given that the flood displaced 200k people and affected regions with such a high percentage of the cattle.</t>
+  </si>
+  <si>
+    <t>https://floodlist.com/africa/ethiopia-october-2019, https://livestocklab.ifas.ufl.edu/media/livestocklabifasufledu/pdf-/LSIL_Livestock_Systems_Overview_Ethiopia_2021_08.pdf</t>
+  </si>
+  <si>
+    <t>A report from the UN office for the Coordination of Humanitarian Affairs, states than four regions of Ethiopia, Afar, Oromia, SNNP, and Somali, all experienced flooding displacing 200k people and destroying homes, farmland and killing livestock. We know from the attached paper that SNPP and Oromia contain almost 1/3 the countries sheep population. So we would expect given these floods and destruction we would see it affecting livestock population numbers. However 2019 saw  the population grow by 7 million sheep or almost 17.5%. This seems high given that the flood displaced 200k people and affected regions with such a high percentage of the sheep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A report from the UN office for the Coordination of Humanitarian Affairs, states than four regions of Ethiopia, Afar, Oromia, SNNP, and Somali, all experienced flooding displacing 200k people and destroying homes, farmland and killing livestock. We know from the attached paper that SNPP and Oromia contain almost 20% the countries chicken population. So we would expect given these floods and destruction we would see it affecting livestock population numbers. In FAOSTATs data we see chicken population plummet by 10 million or 20 percent of the chicken populations. This makes sense bacause the floods would affected the regions with a high percentage of the chicken population, so many people were displaced and needed food so the regions with unaffected populations would have sold them for food as well. So this population drop makes sense in context to the floods occuring during this period. </t>
+  </si>
+  <si>
+    <t>2015-2020</t>
+  </si>
+  <si>
+    <t>https://reliefweb.int/disaster/dr-2015-000109-eth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A report from reliefweb explains that Ethiopia needs 40% more hummanitarian aid because of a prolonged drought that has been occuring since 2015. If Ethiopia required this much assistence due to the extend of this drought, we would expect livestock populations to reduce or plateau but this is not what FAOSTAT is reporting. FAOSTAT reports the cattle population increased from 60 to 70 million cattle over this time. This is an interesting finding because if crops were failing due to lack of rain, it would be suprising that they could find pasture for 10 million more cows. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A report from reliefweb explains that Ethiopia needs 40% more hummanitarian aid because of a prolonged drought that has been occuring since 2015. If Ethiopia required this much assistence due to the extend of this drought, we would expect livestock populations to reduce or plateau but this is not what FAOSTAT is reporting. FAOSTAT reports the sheep population increased from 30 to 42 million sheep over this time. This is an interesting finding because if crops were failing due to lack of rain, it would be suprising that they could find pasture for 10 million more sheep. </t>
+  </si>
+  <si>
+    <t>A report from reliefweb explains that Ethiopia needs 40% more hummanitarian aid because of a prolonged drought that has been occuring since 2015. If Ethiopia required this much assistence due to the extend of this drought, we would expect livestock populations to reduce or plateau and this is what we see in FAOSTATs data. The chicken population actually declines post 2015. This is good evidence that FAOSTAT has good data for this time period because we can see the population decline right as the drought starts.</t>
+  </si>
+  <si>
+    <t>https://reliefweb.int/disaster/dr-2011-000029-ken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The horn of Africa crisis of 2011 saw a once in 60 years drought hit the horn of Africa which Ethiopia exists in. Between 50,000-200,000 people died, so we should see a decline in cattle numbers for this time as well and FAOSTAT shows this. The cattle population drops by ~2 million or almost 4% of the population. </t>
+  </si>
+  <si>
+    <t>The horn of Africa crisis of 2011 saw a once in 60 years drought hit the horn of Africa which Ethiopia exists in. Between 50,000-200,000 people died, so we should see a decline in cattle numbers for this time as well and WOAH shows an increase for this year. If water is being rationed and people are litterally dying because of it, there is no reason why there would be enough water to grow the cattle population,</t>
+  </si>
+  <si>
+    <t>2007-2008</t>
+  </si>
+  <si>
+    <t>The population of sheep for these years is identical. It's almost impossible that there would be the exact same population for both years. The population would increase or decrease by event a little given a population of almost 30 million sheep.</t>
+  </si>
+  <si>
+    <t>2008-2012</t>
+  </si>
+  <si>
+    <t>The population of sheep for these years increases or deacrease by multiple millions of animals. Between 2008 and 2009 it decreases by almost half to then grow to 33 million in two years. This seems extremely unlickly given populations of this size are usually much more stable.</t>
+  </si>
+  <si>
+    <t>https://gbadske.org/dashboards/census/</t>
+  </si>
+  <si>
+    <t>FAOSTAT reports the population to decrease in this year. There was a drought occuring at this time so it makes sense that they would divert water away from livestock for use by people. So FAOSTATs reduction in population for this year makes sense.</t>
+  </si>
+  <si>
+    <t>There was a drought in 2000 in Ethiopia that affected 8 million people. Given a drought this severe there should be a decrease or plateau in the livestock population for this year. FAOSTAT shows a drop of 2 million cattle for this time period. So this is good evidence that FAOSTAT has good data for this time period.</t>
+  </si>
+  <si>
+    <t>https://www.preventionweb.net/files/1857_VL102124.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was a drought in 2000 in Ethiopia that affected 8 million people. Given a drought this severe there should be a decrease or plateau in the livestock population for this year. FAOSTAT shows a drop of 1.2 million chickens for this time period. Although there was already a downward trend for the chicken population, it still declined for this year which still makes sense given the drought. So this is good evidence that FAOSTAT has good data for this time period. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was a drought in 2000 in Ethiopia that affected 8 million people. Given a drought this severe there should be a decrease or plateau in the livestock population for this year. FAOSTAT shows a drop of 1.2 million sheep for this time period. Although there was already a downward trend for the sheep population, it still declined for this year which still makes sense given the drought. So this is good evidence that FAOSTAT has good data for this time period. </t>
   </si>
 </sst>
 </file>
@@ -468,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF87AD83-EE76-2B46-97CE-F1B4BBC6C4A6}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,8 +673,26 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -624,22 +723,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -647,22 +746,390 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>2019</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>2019</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>2019</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>2011</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2011</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>2001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>2000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>2000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/FoundData/EthiopiaDataInvestigation.xlsx
+++ b/FoundData/EthiopiaDataInvestigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC54ADE-99D6-0245-BC6F-A6F4E1AC8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDE504-0CA0-9741-87BE-47A368F54C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{F0FDC933-9F9D-B74D-9AEE-450C1E53535B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="72">
   <si>
     <t>Country</t>
   </si>
@@ -198,6 +198,60 @@
   </si>
   <si>
     <t xml:space="preserve">There was a drought in 2000 in Ethiopia that affected 8 million people. Given a drought this severe there should be a decrease or plateau in the livestock population for this year. FAOSTAT shows a drop of 1.2 million sheep for this time period. Although there was already a downward trend for the sheep population, it still declined for this year which still makes sense given the drought. So this is good evidence that FAOSTAT has good data for this time period. </t>
+  </si>
+  <si>
+    <t>1997-1999</t>
+  </si>
+  <si>
+    <t>Between 1997 and 1998 there was a drought in Ethiopia.It was very severe an more than 1.2 millon Ethiopians required food assistance . Given a drought this severe we would expect there to have been reduced livestock due to consumption of more of the livestock and reduced food for the livestock given the drought that was occuring. For cattle, sheep, pigs, and chickens we see decreases in population over this time. This is good evidence that the FAOSTAT data is correct for this period.</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2212094717301779</t>
+  </si>
+  <si>
+    <t>Cattle, Chickens</t>
+  </si>
+  <si>
+    <t>In 2002, Ethiopia had one of its most severe droughts at that time affecting 13.2 million people. There was a lack of food caused by this drought. As a result we would expect to see a livestock population drop during and after this drough. FAOSTAT shows the chicken and cattle population drop after this which is explained by the reported drought.</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2212094717301779, https://pubmed.ncbi.nlm.nih.gov/19153901/#:~:text=Early%20indications%20were%20that%20the,in%20some%20hard%2Dhit%20localities.</t>
+  </si>
+  <si>
+    <t>Pigs, Sheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2002, Ethiopia had one of its most severe droughts at that time affecting 13.2 million people. There was a lack of food caused by this drought. As a result we would expect to see a livestock population drop during and after this drough. FAOSTAT shows the pig and sheep population increasing during this time and afterwards. This is an interesting trend given that people were starving to death and child mortality increased given the lack of nutrition. It is unlikely that the sheep and pig population would have increased given the sicumstances at the time. </t>
+  </si>
+  <si>
+    <t>Cattle, Chickens, Sheep, Pigs</t>
+  </si>
+  <si>
+    <t>In 2006, rain didn't fall during either of the growing seasons causing a smaller famine in the country. OXFAM/UK, a Charity in the UK, mobilized in the Afar region to gather the dead bodies of animals littering the landscape. Given that the Ethiopians required assistence clearing the dead bodies of animals, it is very unlikely that that the population of livestock increased during this year as reported by FAOSTAT.</t>
+  </si>
+  <si>
+    <t>Cattle, Chickens, Sheep</t>
+  </si>
+  <si>
+    <t>In 2011, Ethopia experienced a short rainfall season. It was one of the driest periods since 1995. 4.5 million people were affected and there was a water and food shortage for the animals. So we would expect to see a drop in the livestock, especially in the cattle population given these circumstances. FAOSTAT reports a drop in the population of chickens, cattle, and sheep to all have dropped during and/or after this year. This is strong evidence that FAOSTAT has quality population data for this year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2011, Ethopia experienced a short rainfall season. It was one of the driest periods since 1995. 4.5 million people were affected and there was a water and food shortage for the animals. So we would expect to see a drop in the livestock, especially in the cattle population given these circumstances. FAOSTAT reports stagnant population growth for pigs during this year. This is unlikely because pigs require lots of food and water which would have been scarce during this time. </t>
+  </si>
+  <si>
+    <t>2015-2016</t>
+  </si>
+  <si>
+    <t>Cattle, Sheep</t>
+  </si>
+  <si>
+    <t>Between 2015 and 2017, Ethiopia experinec an El Nino drought, and rain that came was in heavy rainfall causing floods. This drought was very severe for Ethiopians and resulted in almost 100,000 malnourished children, and 7.8 million people required daily food being sent to them to servive. Given this extended drought there should be a reduction in the livestock population because of the need for food and lack of water and feed. FAOSTAT shows the chicken population decreasing these years which demonstrates logical cohesion given the climate and economic situation at the time.</t>
+  </si>
+  <si>
+    <t>Between 2015 and 2017, Ethiopia experinec an El Nino drought, and rain that came was in heavy rainfall causing floods. This drought was very severe for Ethiopians and resulted in almost 100,000 malnourished children, and 7.8 million people required daily food being sent to them to servive. Given this extended drought there should be a reduction in the livestock population because of the need for food and lack of water and feed. FAOSTAT shows the sheep and cattle population increasing over these years. This is highly unlikely given that people were starving and these are large animals that require lots of food and water which would have been scarce at this time.</t>
+  </si>
+  <si>
+    <t>Between 2015 and 2017, Ethiopia experinec an El Nino drought, and rain that came was in heavy rainfall causing floods. This drought was very severe for Ethiopians and resulted in almost 100,000 malnourished children, and 7.8 million people required daily food being sent to them to servive. Given this extended drought there should be a reduction in the livestock population because of the need for food and lack of water and feed. FAOSTAT shows the pig population increasing in 2016 then decreasing in 2017. The decrease is logical given the situation in Ethiopia but the increase in 2016 is unlikely.</t>
   </si>
 </sst>
 </file>
@@ -253,9 +307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -293,7 +347,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -399,7 +453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF87AD83-EE76-2B46-97CE-F1B4BBC6C4A6}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,6 +1186,213 @@
         <v>51</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>2006</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>2011</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>2011</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FoundData/EthiopiaDataInvestigation.xlsx
+++ b/FoundData/EthiopiaDataInvestigation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FDE504-0CA0-9741-87BE-47A368F54C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068236E9-97B3-E346-8F7D-369E316282BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{F0FDC933-9F9D-B74D-9AEE-450C1E53535B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,9 +71,6 @@
     <t>https://www.semanticscholar.org/reader/eadad373ea14b5391597a2ba5d99d1988cab5a7c</t>
   </si>
   <si>
-    <t>Matches closely with Ethiopias internally collected population numbers</t>
-  </si>
-  <si>
     <t>Poultry/Chickens</t>
   </si>
   <si>
@@ -89,15 +86,9 @@
     <t>Chickens</t>
   </si>
   <si>
-    <t xml:space="preserve">All the data points are labelled as official, meaning that these are not guessed or gathered through another source but straight from Ethiopia which supplied them to FAOSTAT. Since these numbers are from the Ethiopian government there is a high chance this is the most accurate data since the government should opperate at a high standard and be very close to the actual farmers growing the chickens. </t>
-  </si>
-  <si>
     <t>https://gbadske.org/dashboards/visualizer/</t>
   </si>
   <si>
-    <t>In 2016t through 2017 the numbers appear to just be a guess. They become 20000000 and 40000000 for  backyard poultry and  layers respectivly. These are the numbers for both 2016 and 2017 with no change. They appear to just be a guess. This data is not organized enough and seem to be a total guess.</t>
-  </si>
-  <si>
     <t>https://www.econstor.eu/bitstream/10419/63620/1/488096189.pdf, https://pdfs.semanticscholar.org/4d7c/7392d286ecd57826c475fa5d7c80b6aeedc1.pdf?_gl=1*11h8ilr*_ga*NjcyODk1MjAzLjE2OTUwODY0MjI.*_ga_H7P4ZT52H5*MTY5OTkyNDEyOC4zMi4xLjE2OTk5MjU3MjAuMzMuMC4w</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>2002-2003</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ethiopian famine of 2003 was the worst famine the region had seen in 20 years. 13.2 million people were affected. As a result this should have impacted livestock populations and we can see this in a reduction of the cattle population size in 2003. This is good evidence that FAOSTAT has good data because it's showing a decrease when we would expect to see one given the drought occuring at the time. </t>
-  </si>
-  <si>
     <t>https://www.researchgate.net/publication/23801556_Child_survival_during_the_2002-2003_drought_in_Ethiopia, https://www.theguardian.com/world/2003/apr/18/famine.ethiopia</t>
   </si>
   <si>
@@ -143,33 +131,18 @@
     <t>A report from the UN office for the Coordination of Humanitarian Affairs, states than four regions of Ethiopia, Afar, Oromia, SNNP, and Somali, all experienced flooding displacing 200k people and destroying homes, farmland and killing livestock. We know from the attached paper that SNPP and Oromia contain almost 1/3 the countries sheep population. So we would expect given these floods and destruction we would see it affecting livestock population numbers. However 2019 saw  the population grow by 7 million sheep or almost 17.5%. This seems high given that the flood displaced 200k people and affected regions with such a high percentage of the sheep.</t>
   </si>
   <si>
-    <t xml:space="preserve">A report from the UN office for the Coordination of Humanitarian Affairs, states than four regions of Ethiopia, Afar, Oromia, SNNP, and Somali, all experienced flooding displacing 200k people and destroying homes, farmland and killing livestock. We know from the attached paper that SNPP and Oromia contain almost 20% the countries chicken population. So we would expect given these floods and destruction we would see it affecting livestock population numbers. In FAOSTATs data we see chicken population plummet by 10 million or 20 percent of the chicken populations. This makes sense bacause the floods would affected the regions with a high percentage of the chicken population, so many people were displaced and needed food so the regions with unaffected populations would have sold them for food as well. So this population drop makes sense in context to the floods occuring during this period. </t>
-  </si>
-  <si>
     <t>2015-2020</t>
   </si>
   <si>
     <t>https://reliefweb.int/disaster/dr-2015-000109-eth</t>
   </si>
   <si>
-    <t xml:space="preserve">A report from reliefweb explains that Ethiopia needs 40% more hummanitarian aid because of a prolonged drought that has been occuring since 2015. If Ethiopia required this much assistence due to the extend of this drought, we would expect livestock populations to reduce or plateau but this is not what FAOSTAT is reporting. FAOSTAT reports the cattle population increased from 60 to 70 million cattle over this time. This is an interesting finding because if crops were failing due to lack of rain, it would be suprising that they could find pasture for 10 million more cows. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A report from reliefweb explains that Ethiopia needs 40% more hummanitarian aid because of a prolonged drought that has been occuring since 2015. If Ethiopia required this much assistence due to the extend of this drought, we would expect livestock populations to reduce or plateau but this is not what FAOSTAT is reporting. FAOSTAT reports the sheep population increased from 30 to 42 million sheep over this time. This is an interesting finding because if crops were failing due to lack of rain, it would be suprising that they could find pasture for 10 million more sheep. </t>
-  </si>
-  <si>
-    <t>A report from reliefweb explains that Ethiopia needs 40% more hummanitarian aid because of a prolonged drought that has been occuring since 2015. If Ethiopia required this much assistence due to the extend of this drought, we would expect livestock populations to reduce or plateau and this is what we see in FAOSTATs data. The chicken population actually declines post 2015. This is good evidence that FAOSTAT has good data for this time period because we can see the population decline right as the drought starts.</t>
-  </si>
-  <si>
     <t>https://reliefweb.int/disaster/dr-2011-000029-ken</t>
   </si>
   <si>
     <t xml:space="preserve">The horn of Africa crisis of 2011 saw a once in 60 years drought hit the horn of Africa which Ethiopia exists in. Between 50,000-200,000 people died, so we should see a decline in cattle numbers for this time as well and FAOSTAT shows this. The cattle population drops by ~2 million or almost 4% of the population. </t>
   </si>
   <si>
-    <t>The horn of Africa crisis of 2011 saw a once in 60 years drought hit the horn of Africa which Ethiopia exists in. Between 50,000-200,000 people died, so we should see a decline in cattle numbers for this time as well and WOAH shows an increase for this year. If water is being rationed and people are litterally dying because of it, there is no reason why there would be enough water to grow the cattle population,</t>
-  </si>
-  <si>
     <t>2007-2008</t>
   </si>
   <si>
@@ -179,15 +152,9 @@
     <t>2008-2012</t>
   </si>
   <si>
-    <t>The population of sheep for these years increases or deacrease by multiple millions of animals. Between 2008 and 2009 it decreases by almost half to then grow to 33 million in two years. This seems extremely unlickly given populations of this size are usually much more stable.</t>
-  </si>
-  <si>
     <t>https://gbadske.org/dashboards/census/</t>
   </si>
   <si>
-    <t>FAOSTAT reports the population to decrease in this year. There was a drought occuring at this time so it makes sense that they would divert water away from livestock for use by people. So FAOSTATs reduction in population for this year makes sense.</t>
-  </si>
-  <si>
     <t>There was a drought in 2000 in Ethiopia that affected 8 million people. Given a drought this severe there should be a decrease or plateau in the livestock population for this year. FAOSTAT shows a drop of 2 million cattle for this time period. So this is good evidence that FAOSTAT has good data for this time period.</t>
   </si>
   <si>
@@ -203,55 +170,88 @@
     <t>1997-1999</t>
   </si>
   <si>
-    <t>Between 1997 and 1998 there was a drought in Ethiopia.It was very severe an more than 1.2 millon Ethiopians required food assistance . Given a drought this severe we would expect there to have been reduced livestock due to consumption of more of the livestock and reduced food for the livestock given the drought that was occuring. For cattle, sheep, pigs, and chickens we see decreases in population over this time. This is good evidence that the FAOSTAT data is correct for this period.</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S2212094717301779</t>
   </si>
   <si>
     <t>Cattle, Chickens</t>
   </si>
   <si>
-    <t>In 2002, Ethiopia had one of its most severe droughts at that time affecting 13.2 million people. There was a lack of food caused by this drought. As a result we would expect to see a livestock population drop during and after this drough. FAOSTAT shows the chicken and cattle population drop after this which is explained by the reported drought.</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S2212094717301779, https://pubmed.ncbi.nlm.nih.gov/19153901/#:~:text=Early%20indications%20were%20that%20the,in%20some%20hard%2Dhit%20localities.</t>
   </si>
   <si>
     <t>Pigs, Sheep</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2002, Ethiopia had one of its most severe droughts at that time affecting 13.2 million people. There was a lack of food caused by this drought. As a result we would expect to see a livestock population drop during and after this drough. FAOSTAT shows the pig and sheep population increasing during this time and afterwards. This is an interesting trend given that people were starving to death and child mortality increased given the lack of nutrition. It is unlikely that the sheep and pig population would have increased given the sicumstances at the time. </t>
-  </si>
-  <si>
     <t>Cattle, Chickens, Sheep, Pigs</t>
   </si>
   <si>
-    <t>In 2006, rain didn't fall during either of the growing seasons causing a smaller famine in the country. OXFAM/UK, a Charity in the UK, mobilized in the Afar region to gather the dead bodies of animals littering the landscape. Given that the Ethiopians required assistence clearing the dead bodies of animals, it is very unlikely that that the population of livestock increased during this year as reported by FAOSTAT.</t>
-  </si>
-  <si>
     <t>Cattle, Chickens, Sheep</t>
   </si>
   <si>
-    <t>In 2011, Ethopia experienced a short rainfall season. It was one of the driest periods since 1995. 4.5 million people were affected and there was a water and food shortage for the animals. So we would expect to see a drop in the livestock, especially in the cattle population given these circumstances. FAOSTAT reports a drop in the population of chickens, cattle, and sheep to all have dropped during and/or after this year. This is strong evidence that FAOSTAT has quality population data for this year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In 2011, Ethopia experienced a short rainfall season. It was one of the driest periods since 1995. 4.5 million people were affected and there was a water and food shortage for the animals. So we would expect to see a drop in the livestock, especially in the cattle population given these circumstances. FAOSTAT reports stagnant population growth for pigs during this year. This is unlikely because pigs require lots of food and water which would have been scarce during this time. </t>
-  </si>
-  <si>
     <t>2015-2016</t>
   </si>
   <si>
     <t>Cattle, Sheep</t>
   </si>
   <si>
-    <t>Between 2015 and 2017, Ethiopia experinec an El Nino drought, and rain that came was in heavy rainfall causing floods. This drought was very severe for Ethiopians and resulted in almost 100,000 malnourished children, and 7.8 million people required daily food being sent to them to servive. Given this extended drought there should be a reduction in the livestock population because of the need for food and lack of water and feed. FAOSTAT shows the chicken population decreasing these years which demonstrates logical cohesion given the climate and economic situation at the time.</t>
-  </si>
-  <si>
-    <t>Between 2015 and 2017, Ethiopia experinec an El Nino drought, and rain that came was in heavy rainfall causing floods. This drought was very severe for Ethiopians and resulted in almost 100,000 malnourished children, and 7.8 million people required daily food being sent to them to servive. Given this extended drought there should be a reduction in the livestock population because of the need for food and lack of water and feed. FAOSTAT shows the sheep and cattle population increasing over these years. This is highly unlikely given that people were starving and these are large animals that require lots of food and water which would have been scarce at this time.</t>
-  </si>
-  <si>
-    <t>Between 2015 and 2017, Ethiopia experinec an El Nino drought, and rain that came was in heavy rainfall causing floods. This drought was very severe for Ethiopians and resulted in almost 100,000 malnourished children, and 7.8 million people required daily food being sent to them to servive. Given this extended drought there should be a reduction in the livestock population because of the need for food and lack of water and feed. FAOSTAT shows the pig population increasing in 2016 then decreasing in 2017. The decrease is logical given the situation in Ethiopia but the increase in 2016 is unlikely.</t>
+    <t>Matches closely with Ethiopia's internally collected population numbers</t>
+  </si>
+  <si>
+    <t>In 2016t through 2017 the numbers appear to just be a guess. They become 20000000 and 40000000 for  backyard poultry and  layers respectively. These are the numbers for both 2016 and 2017 with no change. They appear to just be a guess. This data is not organized enough and seem to be a total guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the data points are labelled as official, meaning that these are not guessed or gathered through another source but straight from Ethiopia which supplied them to FAOSTAT. Since these numbers are from the Ethiopian government there is a high chance this is the most accurate data since the government should operate at a high standard and be very close to the actual farmers growing the chickens. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ethiopian famine of 2003 was the worst famine the region had seen in 20 years. 13.2 million people were affected. As a result this should have impacted livestock populations and we can see this in a reduction of the cattle population size in 2003. This is good evidence that FAOSTAT has good data because it's showing a decrease when we would expect to see one given the drought occurring at the time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A report from the UN office for the Coordination of Humanitarian Affairs, states than four regions of Ethiopia, Afar, Oromia, SNNP, and Somali, all experienced flooding displacing 200k people and destroying homes, farmland and killing livestock. We know from the attached paper that SNPP and Oromia contain almost 20% the countries chicken population. So we would expect given these floods and destruction we would see it affecting livestock population numbers. In FAOSTATs data we see chicken population plummet by 10 million or 20 percent of the chicken populations. This makes sense because the floods would affected the regions with a high percentage of the chicken population, so many people were displaced and needed food so the regions with unaffected populations would have sold them for food as well. So this population drop makes sense in context to the floods occurring during this period. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A report from reliefweb explains that Ethiopia needs 40% more humanitarian aid because of a prolonged drought that has been occurring since 2015. If Ethiopia required this much assistance due to the extend of this drought, we would expect livestock populations to reduce or plateau but this is not what FAOSTAT is reporting. FAOSTAT reports the cattle population increased from 60 to 70 million cattle over this time. This is an interesting finding because if crops were failing due to lack of rain, it would be surprising that they could find pasture for 10 million more cows. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A report from reliefweb explains that Ethiopia needs 40% more humanitarian aid because of a prolonged drought that has been occurring since 2015. If Ethiopia required this much assistance due to the extend of this drought, we would expect livestock populations to reduce or plateau but this is not what FAOSTAT is reporting. FAOSTAT reports the sheep population increased from 30 to 42 million sheep over this time. This is an interesting finding because if crops were failing due to lack of rain, it would be surprising that they could find pasture for 10 million more sheep. </t>
+  </si>
+  <si>
+    <t>A report from reliefweb explains that Ethiopia needs 40% more humanitarian aid because of a prolonged drought that has been occurring since 2015. If Ethiopia required this much assistance due to the extend of this drought, we would expect livestock populations to reduce or plateau and this is what we see in FAOSTATs data. The chicken population actually declines post 2015. This is good evidence that FAOSTAT has good data for this time period because we can see the population decline right as the drought starts.</t>
+  </si>
+  <si>
+    <t>The horn of Africa crisis of 2011 saw a once in 60 years drought hit the horn of Africa which Ethiopia exists in. Between 50,000-200,000 people died, so we should see a decline in cattle numbers for this time as well and WOAH shows an increase for this year. If water is being rationed and people are literally dying because of it, there is no reason why there would be enough water to grow the cattle population,</t>
+  </si>
+  <si>
+    <t>The population of sheep for these years increases or decrease by multiple millions of animals. Between 2008 and 2009 it decreases by almost half to then grow to 33 million in two years. This seems extremely unlikely given populations of this size are usually much more stable.</t>
+  </si>
+  <si>
+    <t>FAOSTAT reports the population to decrease in this year. There was a drought occurring at this time so it makes sense that they would divert water away from livestock for use by people. So FAOSTATs reduction in population for this year makes sense.</t>
+  </si>
+  <si>
+    <t>Between 1997 and 1998 there was a drought in Ethiopia.It was very severe an more than 1.2 million Ethiopians required food assistance . Given a drought this severe we would expect there to have been reduced livestock due to consumption of more of the livestock and reduced food for the livestock given the drought that was occurring. For cattle, sheep, pigs, and chickens we see decreases in population over this time. This is good evidence that the FAOSTAT data is correct for this period.</t>
+  </si>
+  <si>
+    <t>In 2002, Ethiopia had one of its most severe droughts at that time affecting 13.2 million people. There was a lack of food caused by this drought. As a result we would expect to see a livestock population drop during and after this drought. FAOSTAT shows the chicken and cattle population drop after this which is explained by the reported drought.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2002, Ethiopia had one of its most severe droughts at that time affecting 13.2 million people. There was a lack of food caused by this drought. As a result we would expect to see a livestock population drop during and after this drought. FAOSTAT shows the pig and sheep population increasing during this time and afterwards. This is an interesting trend given that people were starving to death and child mortality increased given the lack of nutrition. It is unlikely that the sheep and pig population would have increased given the circumstances at the time. </t>
+  </si>
+  <si>
+    <t>In 2006, rain didn't fall during either of the growing seasons causing a smaller famine in the country. OXFAM/UK, a Charity in the UK, mobilized in the Afar region to gather the dead bodies of animals littering the landscape. Given that the Ethiopians required assistance clearing the dead bodies of animals, it is very unlikely that that the population of livestock increased during this year as reported by FAOSTAT.</t>
+  </si>
+  <si>
+    <t>In 2011, Ethiopia experienced a short rainfall season. It was one of the driest periods since 1995. 4.5 million people were affected and there was a water and food shortage for the animals. So we would expect to see a drop in the livestock, especially in the cattle population given these circumstances. FAOSTAT reports a drop in the population of chickens, cattle, and sheep to all have dropped during and/or after this year. This is strong evidence that FAOSTAT has quality population data for this year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2011, Ethiopia experienced a short rainfall season. It was one of the driest periods since 1995. 4.5 million people were affected and there was a water and food shortage for the animals. So we would expect to see a drop in the livestock, especially in the cattle population given these circumstances. FAOSTAT reports stagnant population growth for pigs during this year. This is unlikely because pigs require lots of food and water which would have been scarce during this time. </t>
+  </si>
+  <si>
+    <t>Between 2015 and 2017, Ethiopia experience an El Nino drought, and rain that came was in heavy rainfall causing floods. This drought was very severe for Ethiopians and resulted in almost 100,000 malnourished children, and 7.8 million people required daily food being sent to them to survive. Given this extended drought there should be a reduction in the livestock population because of the need for food and lack of water and feed. FAOSTAT shows the chicken population decreasing these years which demonstrates logical cohesion given the climate and economic situation at the time.</t>
+  </si>
+  <si>
+    <t>Between 2015 and 2017, Ethiopia experience an El Nino drought, and rain that came was in heavy rainfall causing floods. This drought was very severe for Ethiopians and resulted in almost 100,000 malnourished children, and 7.8 million people required daily food being sent to them to survive. Given this extended drought there should be a reduction in the livestock population because of the need for food and lack of water and feed. FAOSTAT shows the sheep and cattle population increasing over these years. This is highly unlikely given that people were starving and these are large animals that require lots of food and water which would have been scarce at this time.</t>
+  </si>
+  <si>
+    <t>Between 2015 and 2017, Ethiopia experience an El Nino drought, and rain that came was in heavy rainfall causing floods. This drought was very severe for Ethiopians and resulted in almost 100,000 malnourished children, and 7.8 million people required daily food being sent to them to survive. Given this extended drought there should be a reduction in the livestock population because of the need for food and lack of water and feed. FAOSTAT shows the pig population increasing in 2016 then decreasing in 2017. The decrease is logical given the situation in Ethiopia but the increase in 2016 is unlikely.</t>
   </si>
 </sst>
 </file>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF87AD83-EE76-2B46-97CE-F1B4BBC6C4A6}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -662,22 +662,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -685,22 +685,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -720,10 +720,10 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -731,10 +731,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -743,10 +743,10 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -754,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -766,10 +766,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -777,22 +777,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>4.5</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -812,10 +812,10 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -823,10 +823,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -835,10 +835,10 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -858,10 +858,10 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -881,10 +881,10 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>2019</v>
@@ -904,10 +904,10 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -915,7 +915,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>2019</v>
@@ -927,10 +927,10 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -941,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -950,10 +950,10 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -961,10 +961,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -973,10 +973,10 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -984,10 +984,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -996,10 +996,10 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1019,10 +1019,10 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1036,16 +1036,16 @@
         <v>2011</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1053,22 +1053,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1076,22 +1076,22 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1099,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>2001</v>
@@ -1111,10 +1111,10 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1134,10 +1134,10 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>2000</v>
@@ -1157,10 +1157,10 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1168,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>2000</v>
@@ -1180,10 +1180,10 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1191,10 +1191,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1203,10 +1203,10 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1214,10 +1214,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1226,10 +1226,10 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1237,10 +1237,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1249,10 +1249,10 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1260,7 +1260,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>2006</v>
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1283,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <v>2011</v>
@@ -1295,10 +1295,10 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>2011</v>
@@ -1318,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1329,10 +1329,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1344,7 +1344,7 @@
         <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1352,10 +1352,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -1367,7 +1367,7 @@
         <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1375,10 +1375,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1390,7 +1390,7 @@
         <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/FoundData/EthiopiaDataInvestigation.xlsx
+++ b/FoundData/EthiopiaDataInvestigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068236E9-97B3-E346-8F7D-369E316282BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00531D90-0D99-8345-B944-86258482AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{F0FDC933-9F9D-B74D-9AEE-450C1E53535B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
   <si>
     <t>Country</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">A report from the UN office for the Coordination of Humanitarian Affairs, states than four regions of Ethiopia, Afar, Oromia, SNNP, and Somali, all experienced flooding displacing 200k people and destroying homes, farmland and killing livestock. We know from the attached paper that SNPP and Oromia contain almost 20% the countries chicken population. So we would expect given these floods and destruction we would see it affecting livestock population numbers. In FAOSTATs data we see chicken population plummet by 10 million or 20 percent of the chicken populations. This makes sense because the floods would affected the regions with a high percentage of the chicken population, so many people were displaced and needed food so the regions with unaffected populations would have sold them for food as well. So this population drop makes sense in context to the floods occurring during this period. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A report from reliefweb explains that Ethiopia needs 40% more humanitarian aid because of a prolonged drought that has been occurring since 2015. If Ethiopia required this much assistance due to the extend of this drought, we would expect livestock populations to reduce or plateau but this is not what FAOSTAT is reporting. FAOSTAT reports the cattle population increased from 60 to 70 million cattle over this time. This is an interesting finding because if crops were failing due to lack of rain, it would be surprising that they could find pasture for 10 million more cows. </t>
   </si>
   <si>
     <t xml:space="preserve">A report from reliefweb explains that Ethiopia needs 40% more humanitarian aid because of a prolonged drought that has been occurring since 2015. If Ethiopia required this much assistance due to the extend of this drought, we would expect livestock populations to reduce or plateau but this is not what FAOSTAT is reporting. FAOSTAT reports the sheep population increased from 30 to 42 million sheep over this time. This is an interesting finding because if crops were failing due to lack of rain, it would be surprising that they could find pasture for 10 million more sheep. </t>
@@ -605,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF87AD83-EE76-2B46-97CE-F1B4BBC6C4A6}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -950,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -973,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
@@ -996,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -1042,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -1088,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
         <v>38</v>
@@ -1111,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -1203,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
         <v>44</v>
@@ -1226,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -1249,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -1272,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -1295,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
         <v>44</v>
@@ -1318,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
@@ -1341,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -1364,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
         <v>44</v>
@@ -1387,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
